--- a/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>2018年集团公司总部科技经费预算（建议稿）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>单位：万元</t>
   </si>
@@ -31,18 +28,9 @@
     <t>研究方向</t>
   </si>
   <si>
-    <t>2018年预算</t>
-  </si>
-  <si>
     <t>小计</t>
   </si>
   <si>
-    <t>其中：2018年科技经费预算</t>
-  </si>
-  <si>
-    <t>其中：2018年重点实验室专项经费</t>
-  </si>
-  <si>
     <t>石油工程技术服务公司</t>
   </si>
   <si>
@@ -80,13 +68,25 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>${nd}年集团公司总部科技经费预算（建议稿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技经费预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点实验室专项经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -122,25 +131,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +464,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,184 +476,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="8">
+        <v>28100</v>
+      </c>
+      <c r="E5" s="8">
+        <v>27600</v>
+      </c>
+      <c r="F5" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D6" s="8">
+        <v>500</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
-        <v>28100</v>
-      </c>
-      <c r="E5" s="6">
-        <v>27600</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D7" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2800</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8">
+        <v>750</v>
+      </c>
+      <c r="E9" s="8">
+        <v>750</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
         <v>500</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2800</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3500</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6">
-        <v>750</v>
-      </c>
-      <c r="E9" s="6">
-        <v>750</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6">
-        <v>500</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8">
         <v>37350</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>33650</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>3700</v>
       </c>
     </row>

--- a/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>单位：万元</t>
   </si>
@@ -29,45 +29,6 @@
   </si>
   <si>
     <t>小计</t>
-  </si>
-  <si>
-    <t>石油工程技术服务公司</t>
-  </si>
-  <si>
-    <t>物探、测井、钻井、开发工程技术</t>
-  </si>
-  <si>
-    <t>石油机械公司</t>
-  </si>
-  <si>
-    <t>石油勘探开发装备研发、制造</t>
-  </si>
-  <si>
-    <t>新星石油公司</t>
-  </si>
-  <si>
-    <t>地热资源评价与利用技术</t>
-  </si>
-  <si>
-    <t>南化集团研究院</t>
-  </si>
-  <si>
-    <t>钻井液等油田化学品开发、精细化工品开发</t>
-  </si>
-  <si>
-    <t>石油管理局（胜利、河南、中原等）</t>
-  </si>
-  <si>
-    <t>污水处理等环保节能技术开发</t>
-  </si>
-  <si>
-    <t>炼化工程（集团）公司</t>
-  </si>
-  <si>
-    <t>新能源、环保等石油化工工程技术开发</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
   <si>
     <t>${nd}年集团公司总部科技经费预算（建议稿）</t>
@@ -86,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +64,16 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -131,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -140,13 +110,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -154,7 +118,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,203 +434,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>28100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>27600</v>
-      </c>
-      <c r="F5" s="8">
-        <v>500</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8">
-        <v>500</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>500</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2800</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1200</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3500</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1000</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8">
-        <v>750</v>
-      </c>
-      <c r="E9" s="8">
-        <v>750</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8">
-        <v>500</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>500</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8">
-        <v>37350</v>
-      </c>
-      <c r="E11" s="8">
-        <v>33650</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3700</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D3:F3"/>

--- a/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>单位：万元</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>承担单位</t>
-  </si>
-  <si>
-    <t>研究方向</t>
   </si>
   <si>
     <t>小计</t>
@@ -89,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,11 +94,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -115,19 +127,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,132 +455,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -645,13 +652,12 @@
     <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="5">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_grouptotal_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>单位：万元</t>
   </si>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>重点实验室专项经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,28 +131,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +462,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,55 +474,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
